--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H2">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I2">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J2">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>19.65101800890767</v>
+        <v>20.35127480056333</v>
       </c>
       <c r="R2">
-        <v>176.859162080169</v>
+        <v>183.16147320507</v>
       </c>
       <c r="S2">
-        <v>0.01386875682450916</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="T2">
-        <v>0.01390443741663598</v>
+        <v>0.008377479404753712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.156459</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H3">
-        <v>6.469377000000001</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I3">
-        <v>0.01389412936885012</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J3">
-        <v>0.01392987523772938</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03595104680866667</v>
+        <v>33.19422670765733</v>
       </c>
       <c r="R3">
-        <v>0.323559421278</v>
+        <v>298.748040368916</v>
       </c>
       <c r="S3">
-        <v>2.537254434095648E-05</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="T3">
-        <v>2.543782109339398E-05</v>
+        <v>0.01366420302046275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.009804666666666</v>
+        <v>119.514145</v>
       </c>
       <c r="H4">
-        <v>9.029413999999999</v>
+        <v>358.542435</v>
       </c>
       <c r="I4">
-        <v>0.01939226083762105</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J4">
-        <v>0.01944215192433629</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>27.42724332248422</v>
+        <v>1318.08541193321</v>
       </c>
       <c r="R4">
-        <v>246.845189902358</v>
+        <v>11862.76870739889</v>
       </c>
       <c r="S4">
-        <v>0.01935684796755831</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="T4">
-        <v>0.01940664794645555</v>
+        <v>0.5425819021357386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.009804666666666</v>
+        <v>3.9013105</v>
       </c>
       <c r="H5">
-        <v>9.029413999999999</v>
+        <v>7.802621</v>
       </c>
       <c r="I5">
-        <v>0.01939226083762105</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J5">
-        <v>0.01944215192433629</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.05017745686622221</v>
+        <v>43.026375308729</v>
       </c>
       <c r="R5">
-        <v>0.4515971117959999</v>
+        <v>258.158251852374</v>
       </c>
       <c r="S5">
-        <v>3.541287006273604E-05</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="T5">
-        <v>3.55039778807429E-05</v>
+        <v>0.01180769842159481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.649016</v>
+        <v>93.29919200000001</v>
       </c>
       <c r="H6">
-        <v>241.947048</v>
+        <v>279.897576</v>
       </c>
       <c r="I6">
-        <v>0.5196240048034592</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="J6">
-        <v>0.5209608580203196</v>
+        <v>0.4235687170174501</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>734.9248308531174</v>
+        <v>1028.968612212016</v>
       </c>
       <c r="R6">
-        <v>6614.323477678056</v>
+        <v>9260.717509908145</v>
       </c>
       <c r="S6">
-        <v>0.5186751016550504</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="T6">
-        <v>0.5200095135985772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>80.649016</v>
-      </c>
-      <c r="H7">
-        <v>241.947048</v>
-      </c>
-      <c r="I7">
-        <v>0.5196240048034592</v>
-      </c>
-      <c r="J7">
-        <v>0.5209608580203196</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>1.344526628741333</v>
-      </c>
-      <c r="R7">
-        <v>12.100739658672</v>
-      </c>
-      <c r="S7">
-        <v>0.0009489031484088073</v>
-      </c>
-      <c r="T7">
-        <v>0.0009513444217424344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.19484</v>
-      </c>
-      <c r="H8">
-        <v>2.38968</v>
-      </c>
-      <c r="I8">
-        <v>0.007698389598446743</v>
-      </c>
-      <c r="J8">
-        <v>0.005145463660271635</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>10.88813761716</v>
-      </c>
-      <c r="R8">
-        <v>65.32882570296</v>
-      </c>
-      <c r="S8">
-        <v>0.007684331306181345</v>
-      </c>
-      <c r="T8">
-        <v>0.005136067353284045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.19484</v>
-      </c>
-      <c r="H9">
-        <v>2.38968</v>
-      </c>
-      <c r="I9">
-        <v>0.007698389598446743</v>
-      </c>
-      <c r="J9">
-        <v>0.005145463660271635</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>0.01991957592</v>
-      </c>
-      <c r="R9">
-        <v>0.11951745552</v>
-      </c>
-      <c r="S9">
-        <v>1.405829226539824E-05</v>
-      </c>
-      <c r="T9">
-        <v>9.396306987591187E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H10">
-        <v>204.5891</v>
-      </c>
-      <c r="I10">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J10">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>621.4484159025222</v>
-      </c>
-      <c r="R10">
-        <v>5593.0357431227</v>
-      </c>
-      <c r="S10">
-        <v>0.4385888280811562</v>
-      </c>
-      <c r="T10">
-        <v>0.4397171995195026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H11">
-        <v>204.5891</v>
-      </c>
-      <c r="I11">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J11">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>1.136924360822222</v>
-      </c>
-      <c r="R11">
-        <v>10.2323192474</v>
-      </c>
-      <c r="S11">
-        <v>0.0008023873104668931</v>
-      </c>
-      <c r="T11">
-        <v>0.0008044516378406282</v>
+        <v>0.4235687170174501</v>
       </c>
     </row>
   </sheetData>
